--- a/documents/Estimation_ShoppingList.xlsx
+++ b/documents/Estimation_ShoppingList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danye\Desktop\ShoppingList_J2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danye\Desktop\ShoppingList_J2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1717,9 +1717,15 @@
       <c r="C10" s="95">
         <v>2</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="101"/>
+      <c r="D10" s="97">
+        <v>4</v>
+      </c>
+      <c r="E10" s="99">
+        <v>6</v>
+      </c>
+      <c r="F10" s="101">
+        <v>8</v>
+      </c>
       <c r="G10" s="92"/>
       <c r="H10" s="93"/>
       <c r="I10" s="102"/>
@@ -1738,15 +1744,15 @@
       <c r="M10" s="19"/>
       <c r="N10" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="20"/>
     </row>
@@ -1760,9 +1766,15 @@
       <c r="C11" s="95">
         <v>2</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="97">
+        <v>4</v>
+      </c>
+      <c r="E11" s="99">
+        <v>6</v>
+      </c>
+      <c r="F11" s="101">
+        <v>8</v>
+      </c>
       <c r="G11" s="92"/>
       <c r="H11" s="93"/>
       <c r="I11" s="102"/>
@@ -1781,15 +1793,15 @@
       <c r="M11" s="19"/>
       <c r="N11" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P11" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="20"/>
     </row>
@@ -1803,9 +1815,15 @@
       <c r="C12" s="95">
         <v>2</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="101"/>
+      <c r="D12" s="97">
+        <v>4</v>
+      </c>
+      <c r="E12" s="99">
+        <v>6</v>
+      </c>
+      <c r="F12" s="101">
+        <v>8</v>
+      </c>
       <c r="G12" s="92"/>
       <c r="H12" s="93"/>
       <c r="I12" s="102"/>
@@ -1824,15 +1842,15 @@
       <c r="M12" s="19"/>
       <c r="N12" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P12" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="20"/>
     </row>
@@ -1846,9 +1864,15 @@
       <c r="C13" s="95">
         <v>2</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="101"/>
+      <c r="D13" s="97">
+        <v>4</v>
+      </c>
+      <c r="E13" s="99">
+        <v>6</v>
+      </c>
+      <c r="F13" s="101">
+        <v>8</v>
+      </c>
       <c r="G13" s="92"/>
       <c r="H13" s="93"/>
       <c r="I13" s="102"/>
@@ -1867,15 +1891,15 @@
       <c r="M13" s="19"/>
       <c r="N13" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="20"/>
     </row>
@@ -1889,9 +1913,15 @@
       <c r="C14" s="95">
         <v>3</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="101"/>
+      <c r="D14" s="97">
+        <v>4</v>
+      </c>
+      <c r="E14" s="99">
+        <v>6</v>
+      </c>
+      <c r="F14" s="101">
+        <v>8</v>
+      </c>
       <c r="G14" s="92"/>
       <c r="H14" s="93"/>
       <c r="I14" s="102"/>
@@ -1932,9 +1962,15 @@
       <c r="C15" s="95">
         <v>3</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="101"/>
+      <c r="D15" s="97">
+        <v>4</v>
+      </c>
+      <c r="E15" s="99">
+        <v>6</v>
+      </c>
+      <c r="F15" s="101">
+        <v>8</v>
+      </c>
       <c r="G15" s="92"/>
       <c r="H15" s="93"/>
       <c r="I15" s="102"/>
@@ -1975,9 +2011,15 @@
       <c r="C16" s="95">
         <v>3</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="101"/>
+      <c r="D16" s="97">
+        <v>4</v>
+      </c>
+      <c r="E16" s="99">
+        <v>6</v>
+      </c>
+      <c r="F16" s="101">
+        <v>8</v>
+      </c>
       <c r="G16" s="92"/>
       <c r="H16" s="93"/>
       <c r="I16" s="102"/>
@@ -2018,9 +2060,15 @@
       <c r="C17" s="95">
         <v>3</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="101"/>
+      <c r="D17" s="97">
+        <v>4</v>
+      </c>
+      <c r="E17" s="99">
+        <v>6</v>
+      </c>
+      <c r="F17" s="101">
+        <v>8</v>
+      </c>
       <c r="G17" s="92"/>
       <c r="H17" s="93"/>
       <c r="I17" s="102"/>
@@ -2061,9 +2109,15 @@
       <c r="C18" s="95">
         <v>3</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="101"/>
+      <c r="D18" s="97">
+        <v>4</v>
+      </c>
+      <c r="E18" s="99">
+        <v>6</v>
+      </c>
+      <c r="F18" s="101">
+        <v>8</v>
+      </c>
       <c r="G18" s="92"/>
       <c r="H18" s="93"/>
       <c r="I18" s="103"/>
@@ -2104,9 +2158,15 @@
       <c r="C19" s="95">
         <v>4</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="101"/>
+      <c r="D19" s="97">
+        <v>4</v>
+      </c>
+      <c r="E19" s="99">
+        <v>6</v>
+      </c>
+      <c r="F19" s="101">
+        <v>8</v>
+      </c>
       <c r="G19" s="92"/>
       <c r="H19" s="93"/>
       <c r="I19" s="103"/>
@@ -2147,9 +2207,15 @@
       <c r="C20" s="95">
         <v>4</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="101"/>
+      <c r="D20" s="97">
+        <v>4</v>
+      </c>
+      <c r="E20" s="99">
+        <v>6</v>
+      </c>
+      <c r="F20" s="101">
+        <v>8</v>
+      </c>
       <c r="G20" s="92"/>
       <c r="H20" s="93"/>
       <c r="I20" s="102"/>
@@ -2190,9 +2256,15 @@
       <c r="C21" s="95">
         <v>4</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="101"/>
+      <c r="D21" s="97">
+        <v>4</v>
+      </c>
+      <c r="E21" s="99">
+        <v>6</v>
+      </c>
+      <c r="F21" s="101">
+        <v>8</v>
+      </c>
       <c r="G21" s="92"/>
       <c r="H21" s="93"/>
       <c r="I21" s="102"/>
@@ -2233,9 +2305,15 @@
       <c r="C22" s="95">
         <v>4</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="101"/>
+      <c r="D22" s="97">
+        <v>4</v>
+      </c>
+      <c r="E22" s="99">
+        <v>6</v>
+      </c>
+      <c r="F22" s="101">
+        <v>8</v>
+      </c>
       <c r="G22" s="92"/>
       <c r="H22" s="93"/>
       <c r="I22" s="102"/>
@@ -2276,9 +2354,15 @@
       <c r="C23" s="95">
         <v>4</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="101"/>
+      <c r="D23" s="97">
+        <v>4</v>
+      </c>
+      <c r="E23" s="99">
+        <v>6</v>
+      </c>
+      <c r="F23" s="101">
+        <v>8</v>
+      </c>
       <c r="G23" s="92"/>
       <c r="H23" s="93"/>
       <c r="I23" s="102"/>
@@ -2319,9 +2403,15 @@
       <c r="C24" s="95">
         <v>4</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="101"/>
+      <c r="D24" s="97">
+        <v>4</v>
+      </c>
+      <c r="E24" s="99">
+        <v>6</v>
+      </c>
+      <c r="F24" s="101">
+        <v>8</v>
+      </c>
       <c r="G24" s="92"/>
       <c r="H24" s="93"/>
       <c r="I24" s="102"/>
@@ -2360,9 +2450,15 @@
         <v>45</v>
       </c>
       <c r="C25" s="95"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="101"/>
+      <c r="D25" s="97">
+        <v>4</v>
+      </c>
+      <c r="E25" s="99">
+        <v>6</v>
+      </c>
+      <c r="F25" s="101">
+        <v>8</v>
+      </c>
       <c r="G25" s="92"/>
       <c r="H25" s="93"/>
       <c r="I25" s="102"/>
@@ -2401,9 +2497,15 @@
         <v>80</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="97">
+        <v>4</v>
+      </c>
+      <c r="E26" s="99">
+        <v>6</v>
+      </c>
+      <c r="F26" s="101">
+        <v>8</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="22"/>
       <c r="I26" s="2"/>
@@ -2442,9 +2544,15 @@
         <v>58</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
+      <c r="D27" s="97">
+        <v>4</v>
+      </c>
+      <c r="E27" s="99">
+        <v>6</v>
+      </c>
+      <c r="F27" s="101">
+        <v>8</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="22"/>
       <c r="I27" s="2" t="s">
@@ -2554,15 +2662,15 @@
       </c>
       <c r="D31" s="34">
         <f>SUM(D6:D30)</f>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E31" s="35">
         <f>SUM(E6:E30)</f>
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F31" s="36">
         <f>SUM(F6:F30)</f>
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="G31" s="37">
         <f>SUM(G6:G30)</f>
@@ -2627,15 +2735,15 @@
       </c>
       <c r="N32" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O32" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P32" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="24">
         <f t="shared" si="11"/>
@@ -2652,15 +2760,15 @@
       </c>
       <c r="D33" s="34">
         <f t="shared" ref="D33:G33" si="12">N32</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E33" s="35">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G33" s="37">
         <f t="shared" si="12"/>
@@ -2741,15 +2849,15 @@
       </c>
       <c r="D36" s="49">
         <f>((DEVHOURS_BC_ALL*$C$36)/$B$36)</f>
-        <v>5.44</v>
+        <v>29.92</v>
       </c>
       <c r="E36" s="50">
         <f>((DEVHOURS_ML_ALL*$C$36)/$B$36)</f>
-        <v>8.16</v>
+        <v>44.88</v>
       </c>
       <c r="F36" s="51">
         <f>((DEVHOURS_WC_ALL*$C$36)/$B$36)</f>
-        <v>10.88</v>
+        <v>59.84</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="52"/>
@@ -2775,15 +2883,15 @@
       </c>
       <c r="D37" s="49">
         <f>((DEVHOURS_BC_ALL*$C$37)/$B$37)</f>
-        <v>5.28</v>
+        <v>29.040000000000003</v>
       </c>
       <c r="E37" s="50">
         <f>((DEVHOURS_ML_ALL*$C$37)/$B$37)</f>
-        <v>7.92</v>
+        <v>43.56</v>
       </c>
       <c r="F37" s="51">
         <f>((DEVHOURS_WC_ALL*$C$37)/$B$37)</f>
-        <v>10.56</v>
+        <v>58.080000000000005</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="52"/>
@@ -2809,15 +2917,15 @@
       </c>
       <c r="D38" s="49">
         <f>((DEVHOURS_BC_ALL*$C$38)/$B$38)</f>
-        <v>5.28</v>
+        <v>29.040000000000003</v>
       </c>
       <c r="E38" s="50">
         <f>((DEVHOURS_ML_ALL*$C$38)/$B$38)</f>
-        <v>7.92</v>
+        <v>43.56</v>
       </c>
       <c r="F38" s="51">
         <f>((DEVHOURS_WC_ALL*$C$38)/$B$38)</f>
-        <v>10.56</v>
+        <v>58.080000000000005</v>
       </c>
       <c r="G38" s="54"/>
       <c r="H38" s="55"/>
@@ -2863,15 +2971,15 @@
       </c>
       <c r="D40" s="49">
         <f>C40*DEVHOURS_BC_ALL</f>
-        <v>3.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E40" s="50">
         <f>C40*DEVHOURS_ML_ALL</f>
-        <v>4.8000000000000007</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="F40" s="51">
         <f>C40*DEVHOURS_WC_ALL</f>
-        <v>6.4</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="52"/>
@@ -2895,15 +3003,15 @@
       </c>
       <c r="D41" s="49">
         <f>C41*DEVHOURS_BC_ALL</f>
-        <v>3.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E41" s="50">
         <f>DEVHOURS_ML_ALL*C41</f>
-        <v>4.8000000000000007</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="F41" s="51">
         <f>C41*DEVHOURS_WC_ALL</f>
-        <v>6.4</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="52"/>
@@ -3179,15 +3287,15 @@
       </c>
       <c r="D50" s="49">
         <f>((DEVHOURS_BC_P2*$C$50)/$B$50)</f>
-        <v>0</v>
+        <v>5.44</v>
       </c>
       <c r="E50" s="50">
         <f>((DEVHOURS_ML_P2*$C$50)/$B$50)</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="F50" s="51">
         <f>((DEVHOURS_WC_P2*$C$50)/$B$50)</f>
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="72"/>
@@ -3213,15 +3321,15 @@
       </c>
       <c r="D51" s="49">
         <f>((DEVHOURS_BC_P2*$C$51)/$B$51)</f>
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="E51" s="50">
         <f>((DEVHOURS_ML_P2*$C$51)/$B$51)</f>
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="F51" s="51">
         <f>((DEVHOURS_WC_P2*$C$51)/$B$51)</f>
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="72"/>
@@ -3247,15 +3355,15 @@
       </c>
       <c r="D52" s="49">
         <f>((DEVHOURS_BC_P2*$C$52)/$B$52)</f>
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="E52" s="50">
         <f>((DEVHOURS_ML_P2*$C$52)/$B$52)</f>
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="F52" s="51">
         <f>((DEVHOURS_WC_P2*$C$52)/$B$52)</f>
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="G52" s="54"/>
       <c r="H52" s="73"/>
@@ -3301,15 +3409,15 @@
       </c>
       <c r="D54" s="49">
         <f>C54*DEVHOURS_BC_P2</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E54" s="50">
         <f>C54*DEVHOURS_ML_P2</f>
-        <v>0</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="F54" s="51">
         <f>C54*DEVHOURS_WC_P2</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="72"/>
@@ -3333,15 +3441,15 @@
       </c>
       <c r="D55" s="80">
         <f>C55*DEVHOURS_BC_P2</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E55" s="81">
         <f>DEVHOURS_ML_P2*C55</f>
-        <v>0</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="F55" s="82">
         <f>C55*DEVHOURS_WC_P2</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="G55" s="83"/>
       <c r="H55" s="84"/>
